--- a/Clase_10.5/Base_Transporte_ARIMA.xlsx
+++ b/Clase_10.5/Base_Transporte_ARIMA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminolivavazquez/Documents/Personal/Cursos_UNAM/SERIES_2022-I/Series-de-Tiempo-2021/Clase_09/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Library/Mobile Documents/com~apple~CloudDocs/Documents/Personal/Cursos_UNAM/SERIES_2023-I/Series-de-Tiempo-2022/Clase_08/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D12091-3916-0946-BEFC-1163A3F73D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18680EDC-D461-E841-B8D9-F90F461EB45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{010589B2-5E98-1D40-AEE0-AA1A110D1180}"/>
+    <workbookView xWindow="34120" yWindow="760" windowWidth="28800" windowHeight="17500" xr2:uid="{010589B2-5E98-1D40-AEE0-AA1A110D1180}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Periodo</t>
   </si>
@@ -82,6 +82,12 @@
     <t>D_May2020</t>
   </si>
   <si>
+    <t>D_Ene2022</t>
+  </si>
+  <si>
+    <t>D_Feb2022</t>
+  </si>
+  <si>
     <t>D_Jun2020</t>
   </si>
   <si>
@@ -91,10 +97,10 @@
     <t>D_Mar2021</t>
   </si>
   <si>
-    <t>D_Feb</t>
+    <t>D_Jul</t>
   </si>
   <si>
-    <t>D_Jul</t>
+    <t>D_Feb</t>
   </si>
 </sst>
 </file>
@@ -450,15 +456,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E033B569-E481-7947-93CD-4A9A959244F1}">
-  <dimension ref="A1:T260"/>
+  <dimension ref="A1:V271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,31 +502,37 @@
         <v>14</v>
       </c>
       <c r="M1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="O1" t="s">
         <v>8</v>
       </c>
       <c r="P1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q1" t="s">
         <v>11</v>
       </c>
       <c r="R1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="S1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>36526</v>
       </c>
@@ -581,8 +593,14 @@
       <c r="T2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>36557</v>
       </c>
@@ -643,8 +661,14 @@
       <c r="T3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>36586</v>
       </c>
@@ -705,8 +729,14 @@
       <c r="T4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>36617</v>
       </c>
@@ -767,8 +797,14 @@
       <c r="T5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>36647</v>
       </c>
@@ -829,8 +865,14 @@
       <c r="T6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>36678</v>
       </c>
@@ -891,8 +933,14 @@
       <c r="T7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>36708</v>
       </c>
@@ -953,8 +1001,14 @@
       <c r="T8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>36739</v>
       </c>
@@ -1015,8 +1069,14 @@
       <c r="T9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>36770</v>
       </c>
@@ -1077,8 +1137,14 @@
       <c r="T10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>36800</v>
       </c>
@@ -1139,8 +1205,14 @@
       <c r="T11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>36831</v>
       </c>
@@ -1201,8 +1273,14 @@
       <c r="T12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>36861</v>
       </c>
@@ -1263,8 +1341,14 @@
       <c r="T13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>36892</v>
       </c>
@@ -1325,8 +1409,14 @@
       <c r="T14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>36923</v>
       </c>
@@ -1387,8 +1477,14 @@
       <c r="T15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>36951</v>
       </c>
@@ -1449,8 +1545,14 @@
       <c r="T16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>36982</v>
       </c>
@@ -1511,8 +1613,14 @@
       <c r="T17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>37012</v>
       </c>
@@ -1573,8 +1681,14 @@
       <c r="T18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>37043</v>
       </c>
@@ -1635,8 +1749,14 @@
       <c r="T19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>37073</v>
       </c>
@@ -1697,8 +1817,14 @@
       <c r="T20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>37104</v>
       </c>
@@ -1759,8 +1885,14 @@
       <c r="T21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>37135</v>
       </c>
@@ -1821,8 +1953,14 @@
       <c r="T22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>37165</v>
       </c>
@@ -1883,8 +2021,14 @@
       <c r="T23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>37196</v>
       </c>
@@ -1945,8 +2089,14 @@
       <c r="T24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>37226</v>
       </c>
@@ -2007,8 +2157,14 @@
       <c r="T25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>37257</v>
       </c>
@@ -2069,8 +2225,14 @@
       <c r="T26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>37288</v>
       </c>
@@ -2131,8 +2293,14 @@
       <c r="T27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>37316</v>
       </c>
@@ -2193,8 +2361,14 @@
       <c r="T28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>37347</v>
       </c>
@@ -2255,8 +2429,14 @@
       <c r="T29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>37377</v>
       </c>
@@ -2317,8 +2497,14 @@
       <c r="T30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>37408</v>
       </c>
@@ -2379,8 +2565,14 @@
       <c r="T31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>37438</v>
       </c>
@@ -2441,8 +2633,14 @@
       <c r="T32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>37469</v>
       </c>
@@ -2503,8 +2701,14 @@
       <c r="T33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>37500</v>
       </c>
@@ -2565,8 +2769,14 @@
       <c r="T34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>37530</v>
       </c>
@@ -2627,8 +2837,14 @@
       <c r="T35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>37561</v>
       </c>
@@ -2689,8 +2905,14 @@
       <c r="T36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>37591</v>
       </c>
@@ -2751,8 +2973,14 @@
       <c r="T37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37622</v>
       </c>
@@ -2813,8 +3041,14 @@
       <c r="T38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37653</v>
       </c>
@@ -2875,8 +3109,14 @@
       <c r="T39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>37681</v>
       </c>
@@ -2937,8 +3177,14 @@
       <c r="T40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>37712</v>
       </c>
@@ -2999,8 +3245,14 @@
       <c r="T41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>37742</v>
       </c>
@@ -3061,8 +3313,14 @@
       <c r="T42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>37773</v>
       </c>
@@ -3123,8 +3381,14 @@
       <c r="T43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>37803</v>
       </c>
@@ -3185,8 +3449,14 @@
       <c r="T44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>37834</v>
       </c>
@@ -3247,8 +3517,14 @@
       <c r="T45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>37865</v>
       </c>
@@ -3309,8 +3585,14 @@
       <c r="T46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>37895</v>
       </c>
@@ -3371,8 +3653,14 @@
       <c r="T47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>37926</v>
       </c>
@@ -3433,8 +3721,14 @@
       <c r="T48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>37956</v>
       </c>
@@ -3495,8 +3789,14 @@
       <c r="T49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>37987</v>
       </c>
@@ -3557,8 +3857,14 @@
       <c r="T50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>38018</v>
       </c>
@@ -3619,8 +3925,14 @@
       <c r="T51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>38047</v>
       </c>
@@ -3681,8 +3993,14 @@
       <c r="T52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>38078</v>
       </c>
@@ -3743,8 +4061,14 @@
       <c r="T53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>38108</v>
       </c>
@@ -3805,8 +4129,14 @@
       <c r="T54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>38139</v>
       </c>
@@ -3867,8 +4197,14 @@
       <c r="T55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>38169</v>
       </c>
@@ -3929,8 +4265,14 @@
       <c r="T56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>38200</v>
       </c>
@@ -3991,8 +4333,14 @@
       <c r="T57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>38231</v>
       </c>
@@ -4053,8 +4401,14 @@
       <c r="T58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>38261</v>
       </c>
@@ -4115,8 +4469,14 @@
       <c r="T59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>38292</v>
       </c>
@@ -4177,8 +4537,14 @@
       <c r="T60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>38322</v>
       </c>
@@ -4239,8 +4605,14 @@
       <c r="T61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>38353</v>
       </c>
@@ -4301,8 +4673,14 @@
       <c r="T62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>38384</v>
       </c>
@@ -4363,8 +4741,14 @@
       <c r="T63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>38412</v>
       </c>
@@ -4425,8 +4809,14 @@
       <c r="T64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>38443</v>
       </c>
@@ -4487,8 +4877,14 @@
       <c r="T65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>38473</v>
       </c>
@@ -4549,8 +4945,14 @@
       <c r="T66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>38504</v>
       </c>
@@ -4611,8 +5013,14 @@
       <c r="T67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>38534</v>
       </c>
@@ -4673,8 +5081,14 @@
       <c r="T68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>38565</v>
       </c>
@@ -4735,8 +5149,14 @@
       <c r="T69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>38596</v>
       </c>
@@ -4797,8 +5217,14 @@
       <c r="T70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>38626</v>
       </c>
@@ -4859,8 +5285,14 @@
       <c r="T71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>38657</v>
       </c>
@@ -4921,8 +5353,14 @@
       <c r="T72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>38687</v>
       </c>
@@ -4983,8 +5421,14 @@
       <c r="T73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>38718</v>
       </c>
@@ -5045,8 +5489,14 @@
       <c r="T74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>38749</v>
       </c>
@@ -5107,8 +5557,14 @@
       <c r="T75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>38777</v>
       </c>
@@ -5169,8 +5625,14 @@
       <c r="T76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>38808</v>
       </c>
@@ -5231,8 +5693,14 @@
       <c r="T77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>38838</v>
       </c>
@@ -5293,8 +5761,14 @@
       <c r="T78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>38869</v>
       </c>
@@ -5355,8 +5829,14 @@
       <c r="T79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>38899</v>
       </c>
@@ -5417,8 +5897,14 @@
       <c r="T80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>38930</v>
       </c>
@@ -5479,8 +5965,14 @@
       <c r="T81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>38961</v>
       </c>
@@ -5541,8 +6033,14 @@
       <c r="T82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>38991</v>
       </c>
@@ -5603,8 +6101,14 @@
       <c r="T83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>39022</v>
       </c>
@@ -5665,8 +6169,14 @@
       <c r="T84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>39052</v>
       </c>
@@ -5727,8 +6237,14 @@
       <c r="T85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>39083</v>
       </c>
@@ -5789,8 +6305,14 @@
       <c r="T86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>39114</v>
       </c>
@@ -5851,8 +6373,14 @@
       <c r="T87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>39142</v>
       </c>
@@ -5913,8 +6441,14 @@
       <c r="T88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>39173</v>
       </c>
@@ -5975,8 +6509,14 @@
       <c r="T89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U89">
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>39203</v>
       </c>
@@ -6037,8 +6577,14 @@
       <c r="T90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U90">
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>39234</v>
       </c>
@@ -6099,8 +6645,14 @@
       <c r="T91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U91">
+        <v>0</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>39264</v>
       </c>
@@ -6161,8 +6713,14 @@
       <c r="T92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U92">
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>39295</v>
       </c>
@@ -6223,8 +6781,14 @@
       <c r="T93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U93">
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>39326</v>
       </c>
@@ -6285,8 +6849,14 @@
       <c r="T94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U94">
+        <v>0</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>39356</v>
       </c>
@@ -6347,8 +6917,14 @@
       <c r="T95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U95">
+        <v>0</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>39387</v>
       </c>
@@ -6409,8 +6985,14 @@
       <c r="T96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U96">
+        <v>0</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>39417</v>
       </c>
@@ -6471,8 +7053,14 @@
       <c r="T97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U97">
+        <v>0</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>39448</v>
       </c>
@@ -6533,8 +7121,14 @@
       <c r="T98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U98">
+        <v>0</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>39479</v>
       </c>
@@ -6595,8 +7189,14 @@
       <c r="T99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U99">
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>39508</v>
       </c>
@@ -6657,8 +7257,14 @@
       <c r="T100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U100">
+        <v>0</v>
+      </c>
+      <c r="V100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>39539</v>
       </c>
@@ -6719,8 +7325,14 @@
       <c r="T101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U101">
+        <v>0</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>39569</v>
       </c>
@@ -6781,8 +7393,14 @@
       <c r="T102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U102">
+        <v>0</v>
+      </c>
+      <c r="V102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>39600</v>
       </c>
@@ -6843,8 +7461,14 @@
       <c r="T103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U103">
+        <v>0</v>
+      </c>
+      <c r="V103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>39630</v>
       </c>
@@ -6905,8 +7529,14 @@
       <c r="T104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U104">
+        <v>0</v>
+      </c>
+      <c r="V104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>39661</v>
       </c>
@@ -6967,8 +7597,14 @@
       <c r="T105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U105">
+        <v>0</v>
+      </c>
+      <c r="V105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>39692</v>
       </c>
@@ -7029,8 +7665,14 @@
       <c r="T106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U106">
+        <v>0</v>
+      </c>
+      <c r="V106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>39722</v>
       </c>
@@ -7091,8 +7733,14 @@
       <c r="T107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U107">
+        <v>0</v>
+      </c>
+      <c r="V107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>39753</v>
       </c>
@@ -7153,8 +7801,14 @@
       <c r="T108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U108">
+        <v>0</v>
+      </c>
+      <c r="V108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>39783</v>
       </c>
@@ -7215,8 +7869,14 @@
       <c r="T109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U109">
+        <v>0</v>
+      </c>
+      <c r="V109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>39814</v>
       </c>
@@ -7277,8 +7937,14 @@
       <c r="T110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U110">
+        <v>0</v>
+      </c>
+      <c r="V110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>39845</v>
       </c>
@@ -7339,8 +8005,14 @@
       <c r="T111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U111">
+        <v>0</v>
+      </c>
+      <c r="V111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>39873</v>
       </c>
@@ -7401,8 +8073,14 @@
       <c r="T112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U112">
+        <v>0</v>
+      </c>
+      <c r="V112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>39904</v>
       </c>
@@ -7463,8 +8141,14 @@
       <c r="T113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U113">
+        <v>0</v>
+      </c>
+      <c r="V113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>39934</v>
       </c>
@@ -7525,8 +8209,14 @@
       <c r="T114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U114">
+        <v>0</v>
+      </c>
+      <c r="V114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>39965</v>
       </c>
@@ -7587,8 +8277,14 @@
       <c r="T115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U115">
+        <v>0</v>
+      </c>
+      <c r="V115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>39995</v>
       </c>
@@ -7649,8 +8345,14 @@
       <c r="T116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U116">
+        <v>0</v>
+      </c>
+      <c r="V116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>40026</v>
       </c>
@@ -7711,8 +8413,14 @@
       <c r="T117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U117">
+        <v>0</v>
+      </c>
+      <c r="V117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>40057</v>
       </c>
@@ -7773,8 +8481,14 @@
       <c r="T118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U118">
+        <v>0</v>
+      </c>
+      <c r="V118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>40087</v>
       </c>
@@ -7835,8 +8549,14 @@
       <c r="T119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U119">
+        <v>0</v>
+      </c>
+      <c r="V119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>40118</v>
       </c>
@@ -7897,8 +8617,14 @@
       <c r="T120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U120">
+        <v>0</v>
+      </c>
+      <c r="V120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>40148</v>
       </c>
@@ -7959,8 +8685,14 @@
       <c r="T121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U121">
+        <v>0</v>
+      </c>
+      <c r="V121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>40179</v>
       </c>
@@ -8021,8 +8753,14 @@
       <c r="T122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U122">
+        <v>0</v>
+      </c>
+      <c r="V122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>40210</v>
       </c>
@@ -8083,8 +8821,14 @@
       <c r="T123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U123">
+        <v>0</v>
+      </c>
+      <c r="V123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>40238</v>
       </c>
@@ -8145,8 +8889,14 @@
       <c r="T124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U124">
+        <v>0</v>
+      </c>
+      <c r="V124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>40269</v>
       </c>
@@ -8207,8 +8957,14 @@
       <c r="T125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U125">
+        <v>0</v>
+      </c>
+      <c r="V125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>40299</v>
       </c>
@@ -8269,8 +9025,14 @@
       <c r="T126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U126">
+        <v>0</v>
+      </c>
+      <c r="V126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>40330</v>
       </c>
@@ -8331,8 +9093,14 @@
       <c r="T127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U127">
+        <v>0</v>
+      </c>
+      <c r="V127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>40360</v>
       </c>
@@ -8393,8 +9161,14 @@
       <c r="T128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U128">
+        <v>0</v>
+      </c>
+      <c r="V128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>40391</v>
       </c>
@@ -8455,8 +9229,14 @@
       <c r="T129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U129">
+        <v>0</v>
+      </c>
+      <c r="V129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>40422</v>
       </c>
@@ -8517,8 +9297,14 @@
       <c r="T130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U130">
+        <v>0</v>
+      </c>
+      <c r="V130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>40452</v>
       </c>
@@ -8579,8 +9365,14 @@
       <c r="T131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U131">
+        <v>0</v>
+      </c>
+      <c r="V131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>40483</v>
       </c>
@@ -8641,8 +9433,14 @@
       <c r="T132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U132">
+        <v>0</v>
+      </c>
+      <c r="V132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>40513</v>
       </c>
@@ -8703,8 +9501,14 @@
       <c r="T133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U133">
+        <v>0</v>
+      </c>
+      <c r="V133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>40544</v>
       </c>
@@ -8765,8 +9569,14 @@
       <c r="T134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U134">
+        <v>0</v>
+      </c>
+      <c r="V134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>40575</v>
       </c>
@@ -8827,8 +9637,14 @@
       <c r="T135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U135">
+        <v>0</v>
+      </c>
+      <c r="V135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>40603</v>
       </c>
@@ -8889,8 +9705,14 @@
       <c r="T136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U136">
+        <v>0</v>
+      </c>
+      <c r="V136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>40634</v>
       </c>
@@ -8951,8 +9773,14 @@
       <c r="T137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U137">
+        <v>0</v>
+      </c>
+      <c r="V137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>40664</v>
       </c>
@@ -9013,8 +9841,14 @@
       <c r="T138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U138">
+        <v>0</v>
+      </c>
+      <c r="V138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>40695</v>
       </c>
@@ -9075,8 +9909,14 @@
       <c r="T139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U139">
+        <v>0</v>
+      </c>
+      <c r="V139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>40725</v>
       </c>
@@ -9137,8 +9977,14 @@
       <c r="T140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U140">
+        <v>0</v>
+      </c>
+      <c r="V140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>40756</v>
       </c>
@@ -9199,8 +10045,14 @@
       <c r="T141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U141">
+        <v>0</v>
+      </c>
+      <c r="V141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>40787</v>
       </c>
@@ -9261,8 +10113,14 @@
       <c r="T142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U142">
+        <v>0</v>
+      </c>
+      <c r="V142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>40817</v>
       </c>
@@ -9323,8 +10181,14 @@
       <c r="T143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U143">
+        <v>0</v>
+      </c>
+      <c r="V143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>40848</v>
       </c>
@@ -9385,8 +10249,14 @@
       <c r="T144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U144">
+        <v>0</v>
+      </c>
+      <c r="V144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>40878</v>
       </c>
@@ -9447,8 +10317,14 @@
       <c r="T145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U145">
+        <v>0</v>
+      </c>
+      <c r="V145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>40909</v>
       </c>
@@ -9509,8 +10385,14 @@
       <c r="T146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U146">
+        <v>0</v>
+      </c>
+      <c r="V146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>40940</v>
       </c>
@@ -9571,8 +10453,14 @@
       <c r="T147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U147">
+        <v>0</v>
+      </c>
+      <c r="V147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>40969</v>
       </c>
@@ -9633,8 +10521,14 @@
       <c r="T148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U148">
+        <v>0</v>
+      </c>
+      <c r="V148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>41000</v>
       </c>
@@ -9695,8 +10589,14 @@
       <c r="T149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U149">
+        <v>0</v>
+      </c>
+      <c r="V149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>41030</v>
       </c>
@@ -9757,8 +10657,14 @@
       <c r="T150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U150">
+        <v>0</v>
+      </c>
+      <c r="V150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>41061</v>
       </c>
@@ -9819,8 +10725,14 @@
       <c r="T151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U151">
+        <v>0</v>
+      </c>
+      <c r="V151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>41091</v>
       </c>
@@ -9881,8 +10793,14 @@
       <c r="T152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U152">
+        <v>0</v>
+      </c>
+      <c r="V152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>41122</v>
       </c>
@@ -9943,8 +10861,14 @@
       <c r="T153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U153">
+        <v>0</v>
+      </c>
+      <c r="V153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>41153</v>
       </c>
@@ -10005,8 +10929,14 @@
       <c r="T154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U154">
+        <v>0</v>
+      </c>
+      <c r="V154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>41183</v>
       </c>
@@ -10067,8 +10997,14 @@
       <c r="T155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U155">
+        <v>0</v>
+      </c>
+      <c r="V155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>41214</v>
       </c>
@@ -10129,8 +11065,14 @@
       <c r="T156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U156">
+        <v>0</v>
+      </c>
+      <c r="V156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>41244</v>
       </c>
@@ -10191,8 +11133,14 @@
       <c r="T157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U157">
+        <v>0</v>
+      </c>
+      <c r="V157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>41275</v>
       </c>
@@ -10253,8 +11201,14 @@
       <c r="T158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U158">
+        <v>0</v>
+      </c>
+      <c r="V158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>41306</v>
       </c>
@@ -10315,8 +11269,14 @@
       <c r="T159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U159">
+        <v>0</v>
+      </c>
+      <c r="V159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>41334</v>
       </c>
@@ -10377,8 +11337,14 @@
       <c r="T160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U160">
+        <v>0</v>
+      </c>
+      <c r="V160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>41365</v>
       </c>
@@ -10439,8 +11405,14 @@
       <c r="T161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U161">
+        <v>0</v>
+      </c>
+      <c r="V161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>41395</v>
       </c>
@@ -10501,8 +11473,14 @@
       <c r="T162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U162">
+        <v>0</v>
+      </c>
+      <c r="V162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>41426</v>
       </c>
@@ -10563,8 +11541,14 @@
       <c r="T163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U163">
+        <v>0</v>
+      </c>
+      <c r="V163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>41456</v>
       </c>
@@ -10625,8 +11609,14 @@
       <c r="T164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U164">
+        <v>0</v>
+      </c>
+      <c r="V164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>41487</v>
       </c>
@@ -10687,8 +11677,14 @@
       <c r="T165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U165">
+        <v>0</v>
+      </c>
+      <c r="V165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>41518</v>
       </c>
@@ -10749,8 +11745,14 @@
       <c r="T166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U166">
+        <v>0</v>
+      </c>
+      <c r="V166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>41548</v>
       </c>
@@ -10811,8 +11813,14 @@
       <c r="T167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U167">
+        <v>0</v>
+      </c>
+      <c r="V167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>41579</v>
       </c>
@@ -10873,8 +11881,14 @@
       <c r="T168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U168">
+        <v>0</v>
+      </c>
+      <c r="V168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>41609</v>
       </c>
@@ -10935,8 +11949,14 @@
       <c r="T169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U169">
+        <v>0</v>
+      </c>
+      <c r="V169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>41640</v>
       </c>
@@ -10997,8 +12017,14 @@
       <c r="T170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U170">
+        <v>0</v>
+      </c>
+      <c r="V170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>41671</v>
       </c>
@@ -11059,8 +12085,14 @@
       <c r="T171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U171">
+        <v>0</v>
+      </c>
+      <c r="V171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>41699</v>
       </c>
@@ -11121,8 +12153,14 @@
       <c r="T172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U172">
+        <v>0</v>
+      </c>
+      <c r="V172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>41730</v>
       </c>
@@ -11183,8 +12221,14 @@
       <c r="T173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U173">
+        <v>0</v>
+      </c>
+      <c r="V173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>41760</v>
       </c>
@@ -11245,8 +12289,14 @@
       <c r="T174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U174">
+        <v>0</v>
+      </c>
+      <c r="V174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>41791</v>
       </c>
@@ -11307,8 +12357,14 @@
       <c r="T175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U175">
+        <v>0</v>
+      </c>
+      <c r="V175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>41821</v>
       </c>
@@ -11369,8 +12425,14 @@
       <c r="T176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U176">
+        <v>0</v>
+      </c>
+      <c r="V176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>41852</v>
       </c>
@@ -11431,8 +12493,14 @@
       <c r="T177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U177">
+        <v>0</v>
+      </c>
+      <c r="V177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>41883</v>
       </c>
@@ -11493,8 +12561,14 @@
       <c r="T178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U178">
+        <v>0</v>
+      </c>
+      <c r="V178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>41913</v>
       </c>
@@ -11555,8 +12629,14 @@
       <c r="T179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U179">
+        <v>0</v>
+      </c>
+      <c r="V179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>41944</v>
       </c>
@@ -11617,8 +12697,14 @@
       <c r="T180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U180">
+        <v>0</v>
+      </c>
+      <c r="V180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>41974</v>
       </c>
@@ -11679,8 +12765,14 @@
       <c r="T181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U181">
+        <v>0</v>
+      </c>
+      <c r="V181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>42005</v>
       </c>
@@ -11741,8 +12833,14 @@
       <c r="T182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U182">
+        <v>0</v>
+      </c>
+      <c r="V182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>42036</v>
       </c>
@@ -11803,8 +12901,14 @@
       <c r="T183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U183">
+        <v>0</v>
+      </c>
+      <c r="V183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>42064</v>
       </c>
@@ -11865,8 +12969,14 @@
       <c r="T184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U184">
+        <v>0</v>
+      </c>
+      <c r="V184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>42095</v>
       </c>
@@ -11927,8 +13037,14 @@
       <c r="T185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U185">
+        <v>0</v>
+      </c>
+      <c r="V185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>42125</v>
       </c>
@@ -11989,8 +13105,14 @@
       <c r="T186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U186">
+        <v>0</v>
+      </c>
+      <c r="V186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>42156</v>
       </c>
@@ -12051,8 +13173,14 @@
       <c r="T187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U187">
+        <v>0</v>
+      </c>
+      <c r="V187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>42186</v>
       </c>
@@ -12113,8 +13241,14 @@
       <c r="T188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U188">
+        <v>0</v>
+      </c>
+      <c r="V188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>42217</v>
       </c>
@@ -12175,8 +13309,14 @@
       <c r="T189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U189">
+        <v>0</v>
+      </c>
+      <c r="V189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>42248</v>
       </c>
@@ -12237,8 +13377,14 @@
       <c r="T190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U190">
+        <v>0</v>
+      </c>
+      <c r="V190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>42278</v>
       </c>
@@ -12299,8 +13445,14 @@
       <c r="T191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U191">
+        <v>0</v>
+      </c>
+      <c r="V191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>42309</v>
       </c>
@@ -12361,8 +13513,14 @@
       <c r="T192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U192">
+        <v>0</v>
+      </c>
+      <c r="V192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>42339</v>
       </c>
@@ -12423,8 +13581,14 @@
       <c r="T193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U193">
+        <v>0</v>
+      </c>
+      <c r="V193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>42370</v>
       </c>
@@ -12485,8 +13649,14 @@
       <c r="T194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U194">
+        <v>0</v>
+      </c>
+      <c r="V194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>42401</v>
       </c>
@@ -12547,8 +13717,14 @@
       <c r="T195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U195">
+        <v>0</v>
+      </c>
+      <c r="V195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>42430</v>
       </c>
@@ -12609,8 +13785,14 @@
       <c r="T196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U196">
+        <v>0</v>
+      </c>
+      <c r="V196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>42461</v>
       </c>
@@ -12671,8 +13853,14 @@
       <c r="T197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U197">
+        <v>0</v>
+      </c>
+      <c r="V197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>42491</v>
       </c>
@@ -12733,8 +13921,14 @@
       <c r="T198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U198">
+        <v>0</v>
+      </c>
+      <c r="V198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>42522</v>
       </c>
@@ -12795,8 +13989,14 @@
       <c r="T199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U199">
+        <v>0</v>
+      </c>
+      <c r="V199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>42552</v>
       </c>
@@ -12857,8 +14057,14 @@
       <c r="T200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U200">
+        <v>0</v>
+      </c>
+      <c r="V200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>42583</v>
       </c>
@@ -12919,8 +14125,14 @@
       <c r="T201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U201">
+        <v>0</v>
+      </c>
+      <c r="V201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>42614</v>
       </c>
@@ -12981,8 +14193,14 @@
       <c r="T202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U202">
+        <v>0</v>
+      </c>
+      <c r="V202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>42644</v>
       </c>
@@ -13043,8 +14261,14 @@
       <c r="T203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U203">
+        <v>0</v>
+      </c>
+      <c r="V203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>42675</v>
       </c>
@@ -13105,8 +14329,14 @@
       <c r="T204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U204">
+        <v>0</v>
+      </c>
+      <c r="V204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>42705</v>
       </c>
@@ -13167,8 +14397,14 @@
       <c r="T205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U205">
+        <v>0</v>
+      </c>
+      <c r="V205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>42736</v>
       </c>
@@ -13229,8 +14465,14 @@
       <c r="T206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U206">
+        <v>0</v>
+      </c>
+      <c r="V206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>42767</v>
       </c>
@@ -13291,8 +14533,14 @@
       <c r="T207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U207">
+        <v>0</v>
+      </c>
+      <c r="V207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>42795</v>
       </c>
@@ -13353,8 +14601,14 @@
       <c r="T208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U208">
+        <v>0</v>
+      </c>
+      <c r="V208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>42826</v>
       </c>
@@ -13415,8 +14669,14 @@
       <c r="T209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U209">
+        <v>0</v>
+      </c>
+      <c r="V209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>42856</v>
       </c>
@@ -13477,8 +14737,14 @@
       <c r="T210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U210">
+        <v>0</v>
+      </c>
+      <c r="V210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>42887</v>
       </c>
@@ -13539,8 +14805,14 @@
       <c r="T211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U211">
+        <v>0</v>
+      </c>
+      <c r="V211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>42917</v>
       </c>
@@ -13601,8 +14873,14 @@
       <c r="T212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U212">
+        <v>0</v>
+      </c>
+      <c r="V212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>42948</v>
       </c>
@@ -13663,8 +14941,14 @@
       <c r="T213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U213">
+        <v>0</v>
+      </c>
+      <c r="V213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>42979</v>
       </c>
@@ -13725,8 +15009,14 @@
       <c r="T214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U214">
+        <v>0</v>
+      </c>
+      <c r="V214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>43009</v>
       </c>
@@ -13787,8 +15077,14 @@
       <c r="T215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U215">
+        <v>0</v>
+      </c>
+      <c r="V215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>43040</v>
       </c>
@@ -13849,8 +15145,14 @@
       <c r="T216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U216">
+        <v>0</v>
+      </c>
+      <c r="V216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>43070</v>
       </c>
@@ -13911,8 +15213,14 @@
       <c r="T217">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U217">
+        <v>0</v>
+      </c>
+      <c r="V217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>43101</v>
       </c>
@@ -13973,8 +15281,14 @@
       <c r="T218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U218">
+        <v>0</v>
+      </c>
+      <c r="V218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>43132</v>
       </c>
@@ -14035,8 +15349,14 @@
       <c r="T219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U219">
+        <v>0</v>
+      </c>
+      <c r="V219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>43160</v>
       </c>
@@ -14097,8 +15417,14 @@
       <c r="T220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U220">
+        <v>0</v>
+      </c>
+      <c r="V220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>43191</v>
       </c>
@@ -14159,8 +15485,14 @@
       <c r="T221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U221">
+        <v>0</v>
+      </c>
+      <c r="V221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>43221</v>
       </c>
@@ -14221,8 +15553,14 @@
       <c r="T222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>43252</v>
       </c>
@@ -14283,8 +15621,14 @@
       <c r="T223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>43282</v>
       </c>
@@ -14345,8 +15689,14 @@
       <c r="T224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>43313</v>
       </c>
@@ -14407,8 +15757,14 @@
       <c r="T225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>43344</v>
       </c>
@@ -14469,8 +15825,14 @@
       <c r="T226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>43374</v>
       </c>
@@ -14531,8 +15893,14 @@
       <c r="T227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>43405</v>
       </c>
@@ -14593,8 +15961,14 @@
       <c r="T228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>43435</v>
       </c>
@@ -14655,8 +16029,14 @@
       <c r="T229">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>43466</v>
       </c>
@@ -14717,8 +16097,14 @@
       <c r="T230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>43497</v>
       </c>
@@ -14779,8 +16165,14 @@
       <c r="T231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>43525</v>
       </c>
@@ -14841,8 +16233,14 @@
       <c r="T232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>43556</v>
       </c>
@@ -14903,8 +16301,14 @@
       <c r="T233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>43586</v>
       </c>
@@ -14965,8 +16369,14 @@
       <c r="T234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U234">
+        <v>0</v>
+      </c>
+      <c r="V234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>43617</v>
       </c>
@@ -15027,8 +16437,14 @@
       <c r="T235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U235">
+        <v>0</v>
+      </c>
+      <c r="V235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>43647</v>
       </c>
@@ -15089,8 +16505,14 @@
       <c r="T236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U236">
+        <v>0</v>
+      </c>
+      <c r="V236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>43678</v>
       </c>
@@ -15151,8 +16573,14 @@
       <c r="T237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U237">
+        <v>0</v>
+      </c>
+      <c r="V237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>43709</v>
       </c>
@@ -15213,8 +16641,14 @@
       <c r="T238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U238">
+        <v>0</v>
+      </c>
+      <c r="V238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>43739</v>
       </c>
@@ -15275,8 +16709,14 @@
       <c r="T239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U239">
+        <v>0</v>
+      </c>
+      <c r="V239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>43770</v>
       </c>
@@ -15337,8 +16777,14 @@
       <c r="T240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U240">
+        <v>0</v>
+      </c>
+      <c r="V240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>43800</v>
       </c>
@@ -15399,8 +16845,14 @@
       <c r="T241">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U241">
+        <v>0</v>
+      </c>
+      <c r="V241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>43831</v>
       </c>
@@ -15461,8 +16913,14 @@
       <c r="T242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U242">
+        <v>0</v>
+      </c>
+      <c r="V242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>43862</v>
       </c>
@@ -15523,8 +16981,14 @@
       <c r="T243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U243">
+        <v>0</v>
+      </c>
+      <c r="V243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>43891</v>
       </c>
@@ -15585,8 +17049,14 @@
       <c r="T244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U244">
+        <v>0</v>
+      </c>
+      <c r="V244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>43922</v>
       </c>
@@ -15647,8 +17117,14 @@
       <c r="T245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U245">
+        <v>0</v>
+      </c>
+      <c r="V245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>43952</v>
       </c>
@@ -15709,8 +17185,14 @@
       <c r="T246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U246">
+        <v>0</v>
+      </c>
+      <c r="V246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>43983</v>
       </c>
@@ -15771,8 +17253,14 @@
       <c r="T247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U247">
+        <v>0</v>
+      </c>
+      <c r="V247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>44013</v>
       </c>
@@ -15833,8 +17321,14 @@
       <c r="T248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U248">
+        <v>0</v>
+      </c>
+      <c r="V248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>44044</v>
       </c>
@@ -15895,8 +17389,14 @@
       <c r="T249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U249">
+        <v>0</v>
+      </c>
+      <c r="V249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>44075</v>
       </c>
@@ -15957,8 +17457,14 @@
       <c r="T250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U250">
+        <v>0</v>
+      </c>
+      <c r="V250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>44105</v>
       </c>
@@ -16019,8 +17525,14 @@
       <c r="T251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U251">
+        <v>0</v>
+      </c>
+      <c r="V251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>44136</v>
       </c>
@@ -16081,8 +17593,14 @@
       <c r="T252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U252">
+        <v>0</v>
+      </c>
+      <c r="V252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>44166</v>
       </c>
@@ -16143,22 +17661,28 @@
       <c r="T253">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U253">
+        <v>0</v>
+      </c>
+      <c r="V253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>44197</v>
       </c>
       <c r="B254">
-        <v>2685469</v>
+        <v>2685767</v>
       </c>
       <c r="C254">
-        <v>1185138</v>
+        <v>1185142</v>
       </c>
       <c r="D254">
-        <v>26925</v>
+        <v>26930</v>
       </c>
       <c r="E254">
-        <v>11535</v>
+        <v>11514</v>
       </c>
       <c r="F254">
         <v>41.033642</v>
@@ -16205,22 +17729,28 @@
       <c r="T254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U254">
+        <v>0</v>
+      </c>
+      <c r="V254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>44228</v>
       </c>
       <c r="B255">
-        <v>2213797</v>
+        <v>2214034</v>
       </c>
       <c r="C255">
-        <v>712175</v>
+        <v>712193</v>
       </c>
       <c r="D255">
-        <v>20712</v>
+        <v>20717</v>
       </c>
       <c r="E255">
-        <v>9037</v>
+        <v>9036</v>
       </c>
       <c r="F255">
         <v>50.436321</v>
@@ -16267,22 +17797,28 @@
       <c r="T255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U255">
+        <v>0</v>
+      </c>
+      <c r="V255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>44256</v>
       </c>
       <c r="B256">
-        <v>3162388</v>
+        <v>3162379</v>
       </c>
       <c r="C256">
-        <v>1130103</v>
+        <v>1130645</v>
       </c>
       <c r="D256">
-        <v>25982</v>
+        <v>26010</v>
       </c>
       <c r="E256">
-        <v>10579</v>
+        <v>10584</v>
       </c>
       <c r="F256">
         <v>65.449779000000007</v>
@@ -16329,22 +17865,28 @@
       <c r="T256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U256">
+        <v>0</v>
+      </c>
+      <c r="V256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>44287</v>
       </c>
       <c r="B257">
-        <v>3454084</v>
+        <v>3452944</v>
       </c>
       <c r="C257">
-        <v>1376050</v>
+        <v>1377367</v>
       </c>
       <c r="D257">
-        <v>29362</v>
+        <v>29349</v>
       </c>
       <c r="E257">
-        <v>10723</v>
+        <v>10690</v>
       </c>
       <c r="F257">
         <v>62.577359000000001</v>
@@ -16391,22 +17933,28 @@
       <c r="T257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U257">
+        <v>0</v>
+      </c>
+      <c r="V257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>44317</v>
       </c>
       <c r="B258">
-        <v>3785494</v>
+        <v>3784266</v>
       </c>
       <c r="C258">
-        <v>1655265</v>
+        <v>1656557</v>
       </c>
       <c r="D258">
-        <v>30060</v>
+        <v>30076</v>
       </c>
       <c r="E258">
-        <v>12198</v>
+        <v>12169</v>
       </c>
       <c r="F258">
         <v>62.689974999999997</v>
@@ -16453,22 +18001,28 @@
       <c r="T258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U258">
+        <v>0</v>
+      </c>
+      <c r="V258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>44348</v>
       </c>
       <c r="B259">
-        <v>3789268</v>
+        <v>3791459</v>
       </c>
       <c r="C259">
-        <v>1847458</v>
+        <v>1844126</v>
       </c>
       <c r="D259">
-        <v>30049</v>
+        <v>30069</v>
       </c>
       <c r="E259">
-        <v>13025</v>
+        <v>13040</v>
       </c>
       <c r="F259">
         <v>63.410818999999996</v>
@@ -16515,22 +18069,28 @@
       <c r="T259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U259">
+        <v>0</v>
+      </c>
+      <c r="V259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>44378</v>
       </c>
       <c r="B260">
-        <v>4353838</v>
+        <v>4352913</v>
       </c>
       <c r="C260">
-        <v>2115968</v>
+        <v>2117022</v>
       </c>
       <c r="D260">
-        <v>34418</v>
+        <v>34437</v>
       </c>
       <c r="E260">
-        <v>14272</v>
+        <v>14275</v>
       </c>
       <c r="F260">
         <v>69.822068999999999</v>
@@ -16575,6 +18135,760 @@
         <v>1</v>
       </c>
       <c r="T260">
+        <v>0</v>
+      </c>
+      <c r="U260">
+        <v>0</v>
+      </c>
+      <c r="V260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <v>44409</v>
+      </c>
+      <c r="B261">
+        <v>3961404</v>
+      </c>
+      <c r="C261">
+        <v>1954690</v>
+      </c>
+      <c r="D261">
+        <v>34324</v>
+      </c>
+      <c r="E261">
+        <v>13767</v>
+      </c>
+      <c r="F261">
+        <v>67.964499000000004</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>0</v>
+      </c>
+      <c r="L261">
+        <v>0</v>
+      </c>
+      <c r="M261">
+        <v>0</v>
+      </c>
+      <c r="N261">
+        <v>0</v>
+      </c>
+      <c r="O261">
+        <v>0</v>
+      </c>
+      <c r="P261">
+        <v>0</v>
+      </c>
+      <c r="Q261">
+        <v>0</v>
+      </c>
+      <c r="R261">
+        <v>0</v>
+      </c>
+      <c r="S261">
+        <v>0</v>
+      </c>
+      <c r="T261">
+        <v>0</v>
+      </c>
+      <c r="U261">
+        <v>0</v>
+      </c>
+      <c r="V261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B262">
+        <v>3577845</v>
+      </c>
+      <c r="C262">
+        <v>1483917</v>
+      </c>
+      <c r="D262">
+        <v>30171</v>
+      </c>
+      <c r="E262">
+        <v>12192</v>
+      </c>
+      <c r="F262">
+        <v>70.154246999999998</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+      <c r="L262">
+        <v>0</v>
+      </c>
+      <c r="M262">
+        <v>0</v>
+      </c>
+      <c r="N262">
+        <v>0</v>
+      </c>
+      <c r="O262">
+        <v>0</v>
+      </c>
+      <c r="P262">
+        <v>0</v>
+      </c>
+      <c r="Q262">
+        <v>0</v>
+      </c>
+      <c r="R262">
+        <v>0</v>
+      </c>
+      <c r="S262">
+        <v>0</v>
+      </c>
+      <c r="T262">
+        <v>0</v>
+      </c>
+      <c r="U262">
+        <v>0</v>
+      </c>
+      <c r="V262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <v>44470</v>
+      </c>
+      <c r="B263">
+        <v>4118307</v>
+      </c>
+      <c r="C263">
+        <v>1719971</v>
+      </c>
+      <c r="D263">
+        <v>32974</v>
+      </c>
+      <c r="E263">
+        <v>13269</v>
+      </c>
+      <c r="F263">
+        <v>78.122951999999998</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>0</v>
+      </c>
+      <c r="L263">
+        <v>0</v>
+      </c>
+      <c r="M263">
+        <v>0</v>
+      </c>
+      <c r="N263">
+        <v>0</v>
+      </c>
+      <c r="O263">
+        <v>0</v>
+      </c>
+      <c r="P263">
+        <v>0</v>
+      </c>
+      <c r="Q263">
+        <v>0</v>
+      </c>
+      <c r="R263">
+        <v>0</v>
+      </c>
+      <c r="S263">
+        <v>0</v>
+      </c>
+      <c r="T263">
+        <v>0</v>
+      </c>
+      <c r="U263">
+        <v>0</v>
+      </c>
+      <c r="V263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B264">
+        <v>4313721</v>
+      </c>
+      <c r="C264">
+        <v>1924449</v>
+      </c>
+      <c r="D264">
+        <v>33291</v>
+      </c>
+      <c r="E264">
+        <v>14603</v>
+      </c>
+      <c r="F264">
+        <v>78.483883000000006</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>0</v>
+      </c>
+      <c r="L264">
+        <v>0</v>
+      </c>
+      <c r="M264">
+        <v>0</v>
+      </c>
+      <c r="N264">
+        <v>0</v>
+      </c>
+      <c r="O264">
+        <v>0</v>
+      </c>
+      <c r="P264">
+        <v>0</v>
+      </c>
+      <c r="Q264">
+        <v>0</v>
+      </c>
+      <c r="R264">
+        <v>0</v>
+      </c>
+      <c r="S264">
+        <v>0</v>
+      </c>
+      <c r="T264">
+        <v>0</v>
+      </c>
+      <c r="U264">
+        <v>0</v>
+      </c>
+      <c r="V264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B265">
+        <v>4681213</v>
+      </c>
+      <c r="C265">
+        <v>2034286</v>
+      </c>
+      <c r="D265">
+        <v>36234</v>
+      </c>
+      <c r="E265">
+        <v>17048</v>
+      </c>
+      <c r="F265">
+        <v>84.154004</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>0</v>
+      </c>
+      <c r="L265">
+        <v>0</v>
+      </c>
+      <c r="M265">
+        <v>0</v>
+      </c>
+      <c r="N265">
+        <v>0</v>
+      </c>
+      <c r="O265">
+        <v>0</v>
+      </c>
+      <c r="P265">
+        <v>0</v>
+      </c>
+      <c r="Q265">
+        <v>0</v>
+      </c>
+      <c r="R265">
+        <v>0</v>
+      </c>
+      <c r="S265">
+        <v>0</v>
+      </c>
+      <c r="T265">
+        <v>1</v>
+      </c>
+      <c r="U265">
+        <v>0</v>
+      </c>
+      <c r="V265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B266">
+        <v>3767905</v>
+      </c>
+      <c r="C266">
+        <v>2094697</v>
+      </c>
+      <c r="D266">
+        <v>33193</v>
+      </c>
+      <c r="E266">
+        <v>16690</v>
+      </c>
+      <c r="F266">
+        <v>70.563670000000002</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+      <c r="H266">
+        <v>0</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266">
+        <v>0</v>
+      </c>
+      <c r="L266">
+        <v>0</v>
+      </c>
+      <c r="M266">
+        <v>0</v>
+      </c>
+      <c r="N266">
+        <v>0</v>
+      </c>
+      <c r="O266">
+        <v>0</v>
+      </c>
+      <c r="P266">
+        <v>0</v>
+      </c>
+      <c r="Q266">
+        <v>1</v>
+      </c>
+      <c r="R266">
+        <v>0</v>
+      </c>
+      <c r="S266">
+        <v>0</v>
+      </c>
+      <c r="T266">
+        <v>0</v>
+      </c>
+      <c r="U266">
+        <v>1</v>
+      </c>
+      <c r="V266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B267">
+        <v>3535885</v>
+      </c>
+      <c r="C267">
+        <v>1838837</v>
+      </c>
+      <c r="D267">
+        <v>28461</v>
+      </c>
+      <c r="E267">
+        <v>14526</v>
+      </c>
+      <c r="F267">
+        <v>72.052554999999998</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <v>0</v>
+      </c>
+      <c r="L267">
+        <v>0</v>
+      </c>
+      <c r="M267">
+        <v>0</v>
+      </c>
+      <c r="N267">
+        <v>0</v>
+      </c>
+      <c r="O267">
+        <v>0</v>
+      </c>
+      <c r="P267">
+        <v>0</v>
+      </c>
+      <c r="Q267">
+        <v>0</v>
+      </c>
+      <c r="R267">
+        <v>1</v>
+      </c>
+      <c r="S267">
+        <v>0</v>
+      </c>
+      <c r="T267">
+        <v>0</v>
+      </c>
+      <c r="U267">
+        <v>0</v>
+      </c>
+      <c r="V267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B268">
+        <v>4438186</v>
+      </c>
+      <c r="C268">
+        <v>2440988</v>
+      </c>
+      <c r="D268">
+        <v>33596</v>
+      </c>
+      <c r="E268">
+        <v>17062</v>
+      </c>
+      <c r="F268">
+        <v>88.358373999999998</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <v>0</v>
+      </c>
+      <c r="L268">
+        <v>0</v>
+      </c>
+      <c r="M268">
+        <v>0</v>
+      </c>
+      <c r="N268">
+        <v>0</v>
+      </c>
+      <c r="O268">
+        <v>0</v>
+      </c>
+      <c r="P268">
+        <v>0</v>
+      </c>
+      <c r="Q268">
+        <v>0</v>
+      </c>
+      <c r="R268">
+        <v>0</v>
+      </c>
+      <c r="S268">
+        <v>0</v>
+      </c>
+      <c r="T268">
+        <v>0</v>
+      </c>
+      <c r="U268">
+        <v>0</v>
+      </c>
+      <c r="V268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B269">
+        <v>4701502</v>
+      </c>
+      <c r="C269">
+        <v>2325751</v>
+      </c>
+      <c r="D269">
+        <v>35540</v>
+      </c>
+      <c r="E269">
+        <v>16314</v>
+      </c>
+      <c r="F269">
+        <v>82.897273999999996</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+      <c r="H269">
+        <v>0</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>0</v>
+      </c>
+      <c r="L269">
+        <v>0</v>
+      </c>
+      <c r="M269">
+        <v>0</v>
+      </c>
+      <c r="N269">
+        <v>0</v>
+      </c>
+      <c r="O269">
+        <v>0</v>
+      </c>
+      <c r="P269">
+        <v>0</v>
+      </c>
+      <c r="Q269">
+        <v>0</v>
+      </c>
+      <c r="R269">
+        <v>0</v>
+      </c>
+      <c r="S269">
+        <v>0</v>
+      </c>
+      <c r="T269">
+        <v>0</v>
+      </c>
+      <c r="U269">
+        <v>0</v>
+      </c>
+      <c r="V269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
+        <v>44682</v>
+      </c>
+      <c r="B270">
+        <v>4424819</v>
+      </c>
+      <c r="C270">
+        <v>2045556</v>
+      </c>
+      <c r="D270">
+        <v>35713</v>
+      </c>
+      <c r="E270">
+        <v>15280</v>
+      </c>
+      <c r="F270">
+        <v>91.245641000000006</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+      <c r="H270">
+        <v>0</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270">
+        <v>0</v>
+      </c>
+      <c r="L270">
+        <v>0</v>
+      </c>
+      <c r="M270">
+        <v>0</v>
+      </c>
+      <c r="N270">
+        <v>0</v>
+      </c>
+      <c r="O270">
+        <v>0</v>
+      </c>
+      <c r="P270">
+        <v>0</v>
+      </c>
+      <c r="Q270">
+        <v>0</v>
+      </c>
+      <c r="R270">
+        <v>0</v>
+      </c>
+      <c r="S270">
+        <v>0</v>
+      </c>
+      <c r="T270">
+        <v>0</v>
+      </c>
+      <c r="U270">
+        <v>0</v>
+      </c>
+      <c r="V270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B271">
+        <v>4224212</v>
+      </c>
+      <c r="C271">
+        <v>2084684</v>
+      </c>
+      <c r="D271">
+        <v>35135</v>
+      </c>
+      <c r="E271">
+        <v>15424</v>
+      </c>
+      <c r="F271">
+        <v>88.424030000000002</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+      <c r="H271">
+        <v>0</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
+      <c r="L271">
+        <v>0</v>
+      </c>
+      <c r="M271">
+        <v>0</v>
+      </c>
+      <c r="N271">
+        <v>0</v>
+      </c>
+      <c r="O271">
+        <v>0</v>
+      </c>
+      <c r="P271">
+        <v>0</v>
+      </c>
+      <c r="Q271">
+        <v>0</v>
+      </c>
+      <c r="R271">
+        <v>0</v>
+      </c>
+      <c r="S271">
+        <v>0</v>
+      </c>
+      <c r="T271">
+        <v>0</v>
+      </c>
+      <c r="U271">
+        <v>0</v>
+      </c>
+      <c r="V271">
         <v>0</v>
       </c>
     </row>
